--- a/SVCareers_Automation_Testing_Project/Data/ReferFriend.xlsx
+++ b/SVCareers_Automation_Testing_Project/Data/ReferFriend.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>UserName</t>
   </si>
@@ -74,43 +74,52 @@
     <t>Washington</t>
   </si>
   <si>
+    <t>.Net</t>
+  </si>
+  <si>
+    <t>Candidate has H1B visa</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>CandidateType</t>
+  </si>
+  <si>
+    <t>ExperienceInYrs</t>
+  </si>
+  <si>
+    <t>NoticePeriodInDays</t>
+  </si>
+  <si>
+    <t>C:\\Work\\Resume.pdf</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>SearchKeyword</t>
+  </si>
+  <si>
+    <t>Fresher</t>
+  </si>
+  <si>
+    <t>George.Thompson2@gmail.com8888888888</t>
+  </si>
+  <si>
     <t>Experienced</t>
   </si>
   <si>
-    <t>.Net</t>
-  </si>
-  <si>
-    <t>Candidate has H1B visa</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>CandidateType</t>
-  </si>
-  <si>
-    <t>ExperienceInYrs</t>
-  </si>
-  <si>
-    <t>NoticePeriodInDays</t>
-  </si>
-  <si>
-    <t>C:\\Work\\Resume.pdf</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>SearchKeyword</t>
-  </si>
-  <si>
-    <t>George.Thompson1@gmail.com</t>
+    <t>Available for immediate joining</t>
+  </si>
+  <si>
+    <t>George.Thompson1a973@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -481,7 +490,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,16 +537,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>8</v>
@@ -546,10 +555,10 @@
         <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -569,45 +578,88 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3">
-        <v>9999999989</v>
+        <v>3333333333</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3">
         <v>5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="3">
         <v>60</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3">
+        <v>8788888888</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/SVCareers_Automation_Testing_Project/Data/ReferFriend.xlsx
+++ b/SVCareers_Automation_Testing_Project/Data/ReferFriend.xlsx
@@ -110,16 +110,16 @@
     <t>Fresher</t>
   </si>
   <si>
-    <t>George.Thompson2@gmail.com8888888888</t>
-  </si>
-  <si>
     <t>Experienced</t>
   </si>
   <si>
     <t>Available for immediate joining</t>
   </si>
   <si>
-    <t>George.Thompson1a973@gmail.com</t>
+    <t>George.Thompson1a73@gmail.com</t>
+  </si>
+  <si>
+    <t>George.Thompson3@gmail.com8888888888</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,13 +581,13 @@
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3">
-        <v>3333333333</v>
+        <v>8844885577</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="3">
         <v>5</v>
@@ -629,10 +629,10 @@
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3">
-        <v>8788888888</v>
+        <v>6688774422</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>27</v>
@@ -644,7 +644,7 @@
         <v>22</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>25</v>

--- a/SVCareers_Automation_Testing_Project/Data/ReferFriend.xlsx
+++ b/SVCareers_Automation_Testing_Project/Data/ReferFriend.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>UserName</t>
   </si>
@@ -110,16 +110,7 @@
     <t>Fresher</t>
   </si>
   <si>
-    <t>Experienced</t>
-  </si>
-  <si>
-    <t>Available for immediate joining</t>
-  </si>
-  <si>
-    <t>George.Thompson1a73@gmail.com</t>
-  </si>
-  <si>
-    <t>George.Thompson3@gmail.com8888888888</t>
+    <t>George.Thompson1a741@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -489,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,23 +572,19 @@
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3">
-        <v>8844885577</v>
+        <v>1111111111</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="3">
-        <v>5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="3">
-        <v>60</v>
-      </c>
+      <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
@@ -612,54 +599,29 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3">
-        <v>6688774422</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/SVCareers_Automation_Testing_Project/Data/ReferFriend.xlsx
+++ b/SVCareers_Automation_Testing_Project/Data/ReferFriend.xlsx
@@ -59,58 +59,58 @@
     <t>Technology</t>
   </si>
   <si>
-    <t>Manjunath.Jayaram</t>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>.Net</t>
+  </si>
+  <si>
+    <t>Candidate has H1B visa</t>
+  </si>
+  <si>
+    <t>CandidateType</t>
+  </si>
+  <si>
+    <t>ExperienceInYrs</t>
+  </si>
+  <si>
+    <t>NoticePeriodInDays</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>SearchKeyword</t>
+  </si>
+  <si>
+    <t>Fresher</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>George.Thomps5@gmail.com</t>
+  </si>
+  <si>
+    <t>C:\\Work\\Resume.pdf</t>
+  </si>
+  <si>
+    <t>Ashwini.shashikiran</t>
   </si>
   <si>
     <t>sv123</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Thompson</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>.Net</t>
-  </si>
-  <si>
-    <t>Candidate has H1B visa</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>CandidateType</t>
-  </si>
-  <si>
-    <t>ExperienceInYrs</t>
-  </si>
-  <si>
-    <t>NoticePeriodInDays</t>
-  </si>
-  <si>
-    <t>C:\\Work\\Resume.pdf</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>SearchKeyword</t>
-  </si>
-  <si>
-    <t>Fresher</t>
-  </si>
-  <si>
-    <t>George.Thompson1a741@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,16 +528,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>8</v>
@@ -546,56 +546,60 @@
         <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3">
+        <v>9741545882</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="3">
+        <v>60</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1111111111</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -618,6 +622,20 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+      <formula1>"Fresher,Experienced"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I9 I2:I3">
+      <formula1>"Experienced,Fresher"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+      <formula1>"female,male"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
+      <formula1>"IT,BPO,PST,SSS-Shared Services,SHILOH,GC-IT,DIGITAL"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
   </hyperlinks>
